--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H2">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I2">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J2">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.723583666666666</v>
+        <v>3.078094333333333</v>
       </c>
       <c r="N2">
-        <v>14.170751</v>
+        <v>9.234283</v>
       </c>
       <c r="O2">
-        <v>0.1402914168557431</v>
+        <v>0.1162262227649079</v>
       </c>
       <c r="P2">
-        <v>0.1402914168557431</v>
+        <v>0.1162262227649079</v>
       </c>
       <c r="Q2">
-        <v>2.478664314941889</v>
+        <v>5.55008829371011</v>
       </c>
       <c r="R2">
-        <v>22.307978834477</v>
+        <v>49.95079464339099</v>
       </c>
       <c r="S2">
-        <v>0.006297843749651665</v>
+        <v>0.02028015699494291</v>
       </c>
       <c r="T2">
-        <v>0.006297843749651665</v>
+        <v>0.02028015699494291</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H3">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I3">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J3">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.064568</v>
       </c>
       <c r="O3">
-        <v>0.3075413758051058</v>
+        <v>0.390990551238643</v>
       </c>
       <c r="P3">
-        <v>0.3075413758051058</v>
+        <v>0.390990551238643</v>
       </c>
       <c r="Q3">
-        <v>5.433631298770666</v>
+        <v>18.67076146637066</v>
       </c>
       <c r="R3">
-        <v>48.90268168893601</v>
+        <v>168.036853197336</v>
       </c>
       <c r="S3">
-        <v>0.01380588759300259</v>
+        <v>0.06822341442427961</v>
       </c>
       <c r="T3">
-        <v>0.01380588759300259</v>
+        <v>0.06822341442427959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H4">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I4">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J4">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.94362233333333</v>
+        <v>12.706793</v>
       </c>
       <c r="N4">
-        <v>53.830867</v>
+        <v>38.120379</v>
       </c>
       <c r="O4">
-        <v>0.5329293134854368</v>
+        <v>0.4797976910104138</v>
       </c>
       <c r="P4">
-        <v>0.5329293134854368</v>
+        <v>0.4797976910104139</v>
       </c>
       <c r="Q4">
-        <v>9.415778251645444</v>
+        <v>22.91152103955366</v>
       </c>
       <c r="R4">
-        <v>84.742004264809</v>
+        <v>206.203689355983</v>
       </c>
       <c r="S4">
-        <v>0.02392381245526649</v>
+        <v>0.08371925257507541</v>
       </c>
       <c r="T4">
-        <v>0.02392381245526649</v>
+        <v>0.0837192525750754</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H5">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I5">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J5">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.647736</v>
+        <v>0.3439043333333334</v>
       </c>
       <c r="N5">
-        <v>1.943208</v>
+        <v>1.031713</v>
       </c>
       <c r="O5">
-        <v>0.01923789385371424</v>
+        <v>0.01298553498603535</v>
       </c>
       <c r="P5">
-        <v>0.01923789385371424</v>
+        <v>0.01298553498603535</v>
       </c>
       <c r="Q5">
-        <v>0.339894500024</v>
+        <v>0.6200912668334444</v>
       </c>
       <c r="R5">
-        <v>3.059050500216</v>
+        <v>5.580821401501</v>
       </c>
       <c r="S5">
-        <v>0.0008636112762882582</v>
+        <v>0.002265828501652326</v>
       </c>
       <c r="T5">
-        <v>0.000863611276288258</v>
+        <v>0.002265828501652325</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>13.593464</v>
       </c>
       <c r="I6">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J6">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.723583666666666</v>
+        <v>3.078094333333333</v>
       </c>
       <c r="N6">
-        <v>14.170751</v>
+        <v>9.234283</v>
       </c>
       <c r="O6">
-        <v>0.1402914168557431</v>
+        <v>0.1162262227649079</v>
       </c>
       <c r="P6">
-        <v>0.1402914168557431</v>
+        <v>0.1162262227649079</v>
       </c>
       <c r="Q6">
-        <v>21.40328817460711</v>
+        <v>13.94732150292355</v>
       </c>
       <c r="R6">
-        <v>192.629593571464</v>
+        <v>125.525893526312</v>
       </c>
       <c r="S6">
-        <v>0.05438193620647779</v>
+        <v>0.05096385044158484</v>
       </c>
       <c r="T6">
-        <v>0.05438193620647779</v>
+        <v>0.05096385044158484</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>13.593464</v>
       </c>
       <c r="I7">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J7">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>31.064568</v>
       </c>
       <c r="O7">
-        <v>0.3075413758051058</v>
+        <v>0.390990551238643</v>
       </c>
       <c r="P7">
-        <v>0.3075413758051058</v>
+        <v>0.390990551238643</v>
       </c>
       <c r="Q7">
         <v>46.91945408706133</v>
       </c>
       <c r="R7">
-        <v>422.2750867835521</v>
+        <v>422.275086783552</v>
       </c>
       <c r="S7">
-        <v>0.1192139608731952</v>
+        <v>0.1714448211717621</v>
       </c>
       <c r="T7">
-        <v>0.1192139608731952</v>
+        <v>0.171444821171762</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>13.593464</v>
       </c>
       <c r="I8">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J8">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.94362233333333</v>
+        <v>12.706793</v>
       </c>
       <c r="N8">
-        <v>53.830867</v>
+        <v>38.120379</v>
       </c>
       <c r="O8">
-        <v>0.5329293134854368</v>
+        <v>0.4797976910104138</v>
       </c>
       <c r="P8">
-        <v>0.5329293134854368</v>
+        <v>0.4797976910104139</v>
       </c>
       <c r="Q8">
-        <v>81.30532807258756</v>
+        <v>57.57644440031733</v>
       </c>
       <c r="R8">
-        <v>731.7479526532881</v>
+        <v>518.1879996028559</v>
       </c>
       <c r="S8">
-        <v>0.2065823311081671</v>
+        <v>0.2103857217861453</v>
       </c>
       <c r="T8">
-        <v>0.2065823311081671</v>
+        <v>0.2103857217861453</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>13.593464</v>
       </c>
       <c r="I9">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J9">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.647736</v>
+        <v>0.3439043333333334</v>
       </c>
       <c r="N9">
-        <v>1.943208</v>
+        <v>1.031713</v>
       </c>
       <c r="O9">
-        <v>0.01923789385371424</v>
+        <v>0.01298553498603535</v>
       </c>
       <c r="P9">
-        <v>0.01923789385371424</v>
+        <v>0.01298553498603535</v>
       </c>
       <c r="Q9">
-        <v>2.934991999168</v>
+        <v>1.558283724870222</v>
       </c>
       <c r="R9">
-        <v>26.414927992512</v>
+        <v>14.024553523832</v>
       </c>
       <c r="S9">
-        <v>0.007457290971517127</v>
+        <v>0.005694006457311177</v>
       </c>
       <c r="T9">
-        <v>0.007457290971517126</v>
+        <v>0.005694006457311177</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H10">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I10">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J10">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.723583666666666</v>
+        <v>3.078094333333333</v>
       </c>
       <c r="N10">
-        <v>14.170751</v>
+        <v>9.234283</v>
       </c>
       <c r="O10">
-        <v>0.1402914168557431</v>
+        <v>0.1162262227649079</v>
       </c>
       <c r="P10">
-        <v>0.1402914168557431</v>
+        <v>0.1162262227649079</v>
       </c>
       <c r="Q10">
-        <v>30.95513169652167</v>
+        <v>11.99104172746789</v>
       </c>
       <c r="R10">
-        <v>278.596185268695</v>
+        <v>107.919375547211</v>
       </c>
       <c r="S10">
-        <v>0.07865146623501282</v>
+        <v>0.04381555677980029</v>
       </c>
       <c r="T10">
-        <v>0.07865146623501282</v>
+        <v>0.0438155567798003</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H11">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I11">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J11">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.064568</v>
       </c>
       <c r="O11">
-        <v>0.3075413758051058</v>
+        <v>0.390990551238643</v>
       </c>
       <c r="P11">
-        <v>0.3075413758051058</v>
+        <v>0.390990551238643</v>
       </c>
       <c r="Q11">
-        <v>67.85863314764001</v>
+        <v>40.33843571111733</v>
       </c>
       <c r="R11">
-        <v>610.7276983287602</v>
+        <v>363.045921400056</v>
       </c>
       <c r="S11">
-        <v>0.1724166786331409</v>
+        <v>0.1473976206971313</v>
       </c>
       <c r="T11">
-        <v>0.1724166786331409</v>
+        <v>0.1473976206971313</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H12">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I12">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J12">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.94362233333333</v>
+        <v>12.706793</v>
       </c>
       <c r="N12">
-        <v>53.830867</v>
+        <v>38.120379</v>
       </c>
       <c r="O12">
-        <v>0.5329293134854368</v>
+        <v>0.4797976910104138</v>
       </c>
       <c r="P12">
-        <v>0.5329293134854368</v>
+        <v>0.4797976910104139</v>
       </c>
       <c r="Q12">
-        <v>117.5902093913684</v>
+        <v>49.50065481596033</v>
       </c>
       <c r="R12">
-        <v>1058.311884522315</v>
+        <v>445.505893343643</v>
       </c>
       <c r="S12">
-        <v>0.2987757401320484</v>
+        <v>0.180876591127</v>
       </c>
       <c r="T12">
-        <v>0.2987757401320484</v>
+        <v>0.180876591127</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H13">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I13">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J13">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.647736</v>
+        <v>0.3439043333333334</v>
       </c>
       <c r="N13">
-        <v>1.943208</v>
+        <v>1.031713</v>
       </c>
       <c r="O13">
-        <v>0.01923789385371424</v>
+        <v>0.01298553498603535</v>
       </c>
       <c r="P13">
-        <v>0.01923789385371424</v>
+        <v>0.01298553498603535</v>
       </c>
       <c r="Q13">
-        <v>4.244818044840001</v>
+        <v>1.339715669724556</v>
       </c>
       <c r="R13">
-        <v>38.20336240356001</v>
+        <v>12.057441027521</v>
       </c>
       <c r="S13">
-        <v>0.01078532523785132</v>
+        <v>0.004895353492194046</v>
       </c>
       <c r="T13">
-        <v>0.01078532523785132</v>
+        <v>0.004895353492194046</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H14">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I14">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J14">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.723583666666666</v>
+        <v>3.078094333333333</v>
       </c>
       <c r="N14">
-        <v>14.170751</v>
+        <v>9.234283</v>
       </c>
       <c r="O14">
-        <v>0.1402914168557431</v>
+        <v>0.1162262227649079</v>
       </c>
       <c r="P14">
-        <v>0.1402914168557431</v>
+        <v>0.1162262227649079</v>
       </c>
       <c r="Q14">
-        <v>0.3778977150285556</v>
+        <v>0.3192804648822222</v>
       </c>
       <c r="R14">
-        <v>3.401079435257</v>
+        <v>2.87352418394</v>
       </c>
       <c r="S14">
-        <v>0.0009601706646008786</v>
+        <v>0.001166658548579845</v>
       </c>
       <c r="T14">
-        <v>0.0009601706646008784</v>
+        <v>0.001166658548579845</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H15">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I15">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J15">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>31.064568</v>
       </c>
       <c r="O15">
-        <v>0.3075413758051058</v>
+        <v>0.390990551238643</v>
       </c>
       <c r="P15">
-        <v>0.3075413758051058</v>
+        <v>0.390990551238643</v>
       </c>
       <c r="Q15">
-        <v>0.8284126413306667</v>
+        <v>1.074074696693333</v>
       </c>
       <c r="R15">
-        <v>7.455713771976001</v>
+        <v>9.666672270240001</v>
       </c>
       <c r="S15">
-        <v>0.002104848705767195</v>
+        <v>0.003924694945470038</v>
       </c>
       <c r="T15">
-        <v>0.002104848705767195</v>
+        <v>0.003924694945470037</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H16">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I16">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J16">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.94362233333333</v>
+        <v>12.706793</v>
       </c>
       <c r="N16">
-        <v>53.830867</v>
+        <v>38.120379</v>
       </c>
       <c r="O16">
-        <v>0.5329293134854368</v>
+        <v>0.4797976910104138</v>
       </c>
       <c r="P16">
-        <v>0.5329293134854368</v>
+        <v>0.4797976910104139</v>
       </c>
       <c r="Q16">
-        <v>1.435531655118778</v>
+        <v>1.318033281913333</v>
       </c>
       <c r="R16">
-        <v>12.919784896069</v>
+        <v>11.86229953722</v>
       </c>
       <c r="S16">
-        <v>0.003647429789954781</v>
+        <v>0.004816125522193071</v>
       </c>
       <c r="T16">
-        <v>0.003647429789954781</v>
+        <v>0.004816125522193071</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08000233333333334</v>
+        <v>0.1037266666666667</v>
       </c>
       <c r="H17">
-        <v>0.240007</v>
+        <v>0.31118</v>
       </c>
       <c r="I17">
-        <v>0.006844115528380394</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="J17">
-        <v>0.006844115528380393</v>
+        <v>0.01003782555112075</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.647736</v>
+        <v>0.3439043333333334</v>
       </c>
       <c r="N17">
-        <v>1.943208</v>
+        <v>1.031713</v>
       </c>
       <c r="O17">
-        <v>0.01923789385371424</v>
+        <v>0.01298553498603535</v>
       </c>
       <c r="P17">
-        <v>0.01923789385371424</v>
+        <v>0.01298553498603535</v>
       </c>
       <c r="Q17">
-        <v>0.05182039138400001</v>
+        <v>0.0356720501488889</v>
       </c>
       <c r="R17">
-        <v>0.466383522456</v>
+        <v>0.32104845134</v>
       </c>
       <c r="S17">
-        <v>0.0001316663680575394</v>
+        <v>0.000130346534877798</v>
       </c>
       <c r="T17">
-        <v>0.0001316663680575393</v>
+        <v>0.000130346534877798</v>
       </c>
     </row>
   </sheetData>
